--- a/src/main/resources/excelTemplate/订单状态报表.xlsx
+++ b/src/main/resources/excelTemplate/订单状态报表.xlsx
@@ -190,11 +190,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,13 +567,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
@@ -585,26 +586,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -634,34 +635,34 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
